--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1736.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1736.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6730833019515692</v>
+        <v>1.042870879173279</v>
       </c>
       <c r="B1">
-        <v>1.554520971160103</v>
+        <v>1.302420139312744</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.149562007104157</v>
+        <v>1.683874130249023</v>
       </c>
       <c r="E1">
-        <v>1.461002038485578</v>
+        <v>1.014582276344299</v>
       </c>
     </row>
   </sheetData>
